--- a/Casos de Prueba.xlsx
+++ b/Casos de Prueba.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia\Documents\_Luciano\Capacitación\Python\3raEntrega_LucianoScorza\ProyectoWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9087DCDD-92C0-4428-9E00-76298C1575D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858D6716-6E03-4B2D-B25E-BF246319AD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DB94DCA5-A6DE-45CF-8B95-1CC98BCC57C6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="CasosPrueba" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Fecha</t>
   </si>
   <si>
-    <t>Observacion</t>
-  </si>
-  <si>
-    <t>el boton Agrega item me llevaba a Agregar proveedor</t>
-  </si>
-  <si>
     <t>el about no se leia la descripcion</t>
   </si>
   <si>
@@ -43,6 +37,87 @@
   </si>
   <si>
     <t>los botones para los no logueados lleva a error 404</t>
+  </si>
+  <si>
+    <t>Nro Prueba</t>
+  </si>
+  <si>
+    <t>Accion</t>
+  </si>
+  <si>
+    <t>Result Esperado</t>
+  </si>
+  <si>
+    <t>Result Obtenido</t>
+  </si>
+  <si>
+    <t>Boton Agrega Item</t>
+  </si>
+  <si>
+    <t>me llevaba a Agregar proveedor</t>
+  </si>
+  <si>
+    <t>Permita agregar Item</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Lectura de la Narrativa completa</t>
+  </si>
+  <si>
+    <t>Logueo</t>
+  </si>
+  <si>
+    <t>Acceder con Usuario</t>
+  </si>
+  <si>
+    <t>Corregido</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>Paginas con LoguinRequired</t>
+  </si>
+  <si>
+    <t>no Muestren Error 404</t>
+  </si>
+  <si>
+    <t>Boton Inicio</t>
+  </si>
+  <si>
+    <t>q me lleve al Inicio</t>
+  </si>
+  <si>
+    <t>me lleva al top page</t>
+  </si>
+  <si>
+    <t>Validacion de Link (Linkedin y CV)</t>
+  </si>
+  <si>
+    <t>Q lleven a las Url correspondientes</t>
+  </si>
+  <si>
+    <t>los esperados</t>
+  </si>
+  <si>
+    <t>Verificamos Botones</t>
+  </si>
+  <si>
+    <t>q lleven a una Url o Enlace determinado</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Vericamos Carga de Avaar</t>
+  </si>
+  <si>
+    <t>Q permita la carga de foto por Usuario</t>
+  </si>
+  <si>
+    <t>Mostraba la posibilidad de carga para todos lo usuarios</t>
   </si>
 </sst>
 </file>
@@ -85,7 +160,20 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -96,6 +184,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3DA614F6-36D0-4F1E-A972-ACAB2C32F609}" name="Pruebas" displayName="Pruebas" ref="A1:F9" totalsRowShown="0">
+  <autoFilter ref="A1:F9" xr:uid="{3DA614F6-36D0-4F1E-A972-ACAB2C32F609}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F5">
+    <sortCondition ref="B2:B5"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{2BF137F0-0927-4377-9E26-D1C04D69B1ED}" name="Nro Prueba"/>
+    <tableColumn id="2" xr3:uid="{CE1994BA-2595-4710-B024-C51D173C01F4}" name="Fecha" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{0D52CBD0-3D32-465E-BFD1-10530CE1B02D}" name="Accion" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{44AF29CB-56D5-4591-85AF-8F406FEA8B70}" name="Result Esperado" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{D0A0DFAE-0494-467A-9EC1-C4E77CB2B5E8}" name="Result Obtenido"/>
+    <tableColumn id="6" xr3:uid="{BF67AE41-A26A-405D-A19D-001EE9EC6F67}" name="Corregido" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,58 +501,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6FD6A1-012E-4D4E-90D2-5A8644FCEF71}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="B2" s="1">
+        <v>45327</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45329</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>45330</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45327</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45331</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>45329</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>45331</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45333</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>